--- a/cases/NorthSea_v2/Networks/NetworkDataElectricity_DC.xlsx
+++ b/cases/NorthSea_v2/Networks/NetworkDataElectricity_DC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea_v2\Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065A4146-7969-425E-9003-D74AD006329A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8AEABB-585A-4655-8EBC-F9D3D4C85961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA908912-227C-430C-843A-6E0E9DEC2BCE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EA908912-227C-430C-843A-6E0E9DEC2BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="NetworkConnection" sheetId="8" r:id="rId1"/>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DD3F9F-5CD5-413C-96B9-1FF4B1CDED4D}">
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2349,11 +2349,11 @@
       </c>
       <c r="O12" s="1">
         <f>IF(AND(NetworkConnection_all!O12=1,NetworkLength!O12&gt;=80),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="1">
         <f>IF(AND(NetworkConnection_all!P12=1,NetworkLength!P12&gt;=80),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
         <f>IF(AND(NetworkConnection_all!Q12=1,NetworkLength!Q12&gt;=80),1,0)</f>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="L15" s="1">
         <f>IF(AND(NetworkConnection_all!L15=1,NetworkLength!L15&gt;=80),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
         <f>IF(AND(NetworkConnection_all!M15=1,NetworkLength!M15&gt;=80),1,0)</f>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="L16" s="1">
         <f>IF(AND(NetworkConnection_all!L16=1,NetworkLength!L16&gt;=80),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
         <f>IF(AND(NetworkConnection_all!M16=1,NetworkLength!M16&gt;=80),1,0)</f>
@@ -4568,7 +4568,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5600,10 +5600,10 @@
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
         <v>0</v>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
